--- a/csvs/Data Dictionary.xlsx
+++ b/csvs/Data Dictionary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcharbatkin/Projects/vads/data/GIBCT Data Service/Raw GIBCT Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcharbatkin/Projects/vads/gibct-data-service/csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="210">
   <si>
     <t>facility_code</t>
   </si>
@@ -459,9 +459,6 @@
     <t>yr?</t>
   </si>
   <si>
-    <t>GIBCT Column</t>
-  </si>
-  <si>
     <t>accredited?</t>
   </si>
   <si>
@@ -661,13 +658,31 @@
   </si>
   <si>
     <t>Outcome</t>
+  </si>
+  <si>
+    <t>GIBCT Dataase Column</t>
+  </si>
+  <si>
+    <t>CSV Column Header</t>
+  </si>
+  <si>
+    <t>last action</t>
+  </si>
+  <si>
+    <t>total count of students</t>
+  </si>
+  <si>
+    <t>school_name</t>
+  </si>
+  <si>
+    <t>facility no.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -683,8 +698,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,8 +727,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -752,11 +800,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -768,43 +865,70 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -812,18 +936,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D86" totalsRowShown="0" headerRowDxfId="0">
-  <tableColumns count="4">
-    <tableColumn id="1" name="GIBCT Column"/>
-    <tableColumn id="2" name="Data Type"/>
-    <tableColumn id="3" name="Source"/>
-    <tableColumn id="4" name="Derivation"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1089,1159 +1201,1334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="135.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="135.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="23"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="23"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="23"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" s="23"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="23"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="23"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="23"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" s="23"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="23"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="23"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" s="23"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="23"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" s="23"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E71" s="23"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="23"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="23"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" s="23"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" s="23"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" s="23"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E79" s="23"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" s="23"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82" s="23"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E83" s="23"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E85" s="23"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D86" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" s="23"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B87" s="22"/>
+      <c r="C87" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D88" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E88" s="23"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B89" s="22"/>
+      <c r="C89" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B90" s="22"/>
+      <c r="C90" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D90" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E90" s="23"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B91" s="22"/>
+      <c r="C91" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" t="s">
-        <v>204</v>
-      </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" t="s">
-        <v>153</v>
-      </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" t="s">
-        <v>153</v>
-      </c>
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D47" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" t="s">
-        <v>184</v>
-      </c>
-      <c r="D50" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" t="s">
-        <v>153</v>
-      </c>
-      <c r="C54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" t="s">
-        <v>199</v>
-      </c>
-      <c r="D60" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>130</v>
-      </c>
-      <c r="B80" t="s">
-        <v>134</v>
-      </c>
-      <c r="C80" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82" t="s">
-        <v>134</v>
-      </c>
-      <c r="C82" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" t="s">
-        <v>134</v>
-      </c>
-      <c r="C86" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="10"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="12"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="10"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="12"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="10"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="12"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="10"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="12"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="10"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="12"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="10"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="12"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="10"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="12"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="10"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="12"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="10"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
+      <c r="D94" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" s="14"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
       <c r="D96" s="12"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="10"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
+      <c r="F96" s="14"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
       <c r="D97" s="12"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="10"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
+      <c r="F97" s="14"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
       <c r="D98" s="12"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="10"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
+      <c r="F98" s="14"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
       <c r="D99" s="12"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="10"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
+      <c r="F99" s="14"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
       <c r="D100" s="12"/>
+      <c r="F100" s="14"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="12"/>
+      <c r="F101" s="14"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="12"/>
+      <c r="F102" s="14"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="12"/>
+      <c r="F103" s="14"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="12"/>
+      <c r="F104" s="14"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="12"/>
+      <c r="F105" s="14"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="12"/>
+      <c r="F106" s="14"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="12"/>
+      <c r="F107" s="14"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="12"/>
+      <c r="F108" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -2287,7 +2574,7 @@
         <v>134</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2329,13 +2616,13 @@
         <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>129</v>
@@ -2366,27 +2653,27 @@
         <v>125</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2432,7 +2719,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>13</v>
@@ -2465,10 +2752,10 @@
         <v>49</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>52</v>
@@ -2506,31 +2793,31 @@
         <v>134</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -2545,21 +2832,21 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2593,22 +2880,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>36</v>
@@ -2631,7 +2918,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>134</v>
@@ -2672,17 +2959,17 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+        <v>179</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2717,7 +3004,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>113</v>
@@ -2751,7 +3038,7 @@
         <v>54</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>56</v>
@@ -2759,7 +3046,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>134</v>
@@ -2799,13 +3086,13 @@
         <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>56</v>
@@ -2813,7 +3100,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>134</v>
@@ -2833,7 +3120,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2841,7 +3128,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2874,7 +3161,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>133</v>
@@ -2909,7 +3196,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>133</v>
@@ -2944,18 +3231,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3054,7 +3341,7 @@
         <v>127</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>10</v>
@@ -3079,7 +3366,7 @@
       <c r="F2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>113</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -3089,21 +3376,21 @@
         <v>113</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="O2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>133</v>
       </c>
       <c r="P2" s="4" t="s">
@@ -3112,13 +3399,13 @@
       <c r="Q2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>133</v>
       </c>
       <c r="U2" s="3" t="s">
@@ -3139,8 +3426,8 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="8" t="s">
-        <v>158</v>
+      <c r="G3" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -3154,16 +3441,16 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -3173,7 +3460,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -3191,251 +3478,251 @@
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3475,33 +3762,33 @@
         <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3728,19 +4015,19 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>27</v>
@@ -3752,7 +4039,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>64</v>
@@ -3764,7 +4051,7 @@
         <v>65</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -3810,13 +4097,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>125</v>
@@ -3824,15 +4111,15 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>96</v>
@@ -3840,15 +4127,15 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3950,7 +4237,7 @@
         <v>134</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
